--- a/experiment result/128_0.1_40_zs10_kappa_lp.xlsx
+++ b/experiment result/128_0.1_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08193828368030362</v>
+        <v>0.01568272067326754</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08285992528685168</v>
+        <v>0.05643344242423487</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.107419290405912</v>
+        <v>0.07840738171676942</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09388183217991425</v>
+        <v>0.05049598341516921</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08122250662391461</v>
+        <v>0.04778453681369231</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1048517227727543</v>
+        <v>0.04906300117250637</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09645885171309625</v>
+        <v>0.05519114749218099</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09353102807260821</v>
+        <v>0.03008452883204481</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08944553477411685</v>
+        <v>0.03603081773179694</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09980862894731407</v>
+        <v>0.199680623493271</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1088072442731708</v>
+        <v>0.01865481570386063</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1145995129630301</v>
+        <v>0.1434165055079926</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1111797954476459</v>
+        <v>0.02457710348944976</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1022348112061516</v>
+        <v>0.0261784352575743</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1147509117360301</v>
+        <v>0.08084692025776048</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09848909763277364</v>
+        <v>0.01489154397665128</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1065483497750645</v>
+        <v>0.04735332741397354</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08443235471600012</v>
+        <v>0.004959964424289391</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08050620221885403</v>
+        <v>0.1534842815179847</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1128113824722271</v>
+        <v>0.0652357670593887</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07225570270378881</v>
+        <v>0.01394456443312395</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08348958660981409</v>
+        <v>0.007123438521624695</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0941920742536399</v>
+        <v>0.06261095214095413</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05422027679246381</v>
+        <v>0.00683241944796039</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08323470633893568</v>
+        <v>0.002925276719211444</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1130404919362971</v>
+        <v>0.06369120129919557</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1005014992861204</v>
+        <v>0.03239775654648859</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0815314933755197</v>
+        <v>0.1070596466237784</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.09036500619941616</v>
+        <v>0.03056395723387513</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1097579516417592</v>
+        <v>0.05075317168580153</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04036566293605093</v>
+        <v>0.002750368466176515</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.09023091911056327</v>
+        <v>0.03653855265982776</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.107581645400311</v>
+        <v>0.06321508947898027</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07506696964007445</v>
+        <v>0.09939687337140032</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08853547475981574</v>
+        <v>0.05773047911237096</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.109263315324882</v>
+        <v>0.09569409837265318</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08248705565184689</v>
+        <v>0.01532792332647373</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.103915345021535</v>
+        <v>0.02743862946601756</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08695768370158019</v>
+        <v>0.1080260570615245</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09864020106499363</v>
+        <v>0.157624736902688</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104825019027579</v>
+        <v>0.1152553317198076</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06183863624689304</v>
+        <v>0.03211345448928728</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09011517182497261</v>
+        <v>0.143221879366725</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09692721429629875</v>
+        <v>0.06771409786653487</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08883424287479469</v>
+        <v>0.1098550204435091</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1068248406953189</v>
+        <v>0.04182878679152076</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1058503069732826</v>
+        <v>0.2103128658487156</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08749565291884967</v>
+        <v>0.02565468984155735</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09889784605141208</v>
+        <v>0.009943112927540151</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08061188369360769</v>
+        <v>0.01030563178730691</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09184290106879338</v>
+        <v>0.05921081006576569</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1064674576780806</v>
+        <v>0.06540819724077056</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06085635939080812</v>
+        <v>0.01105758515988787</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.05442590761879344</v>
+        <v>0.004034695894117617</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08854500038972826</v>
+        <v>0.0510689979257554</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.09302465478276323</v>
+        <v>0.06873880367584898</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.09135455727272103</v>
+        <v>0.03651693171884179</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.103987057828098</v>
+        <v>0.08603205792945015</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08274019162311994</v>
+        <v>0.02143960279260686</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09975227915990287</v>
+        <v>0.03559970575312621</v>
       </c>
     </row>
   </sheetData>
